--- a/MethodDemos/output/statistics/grobid-YEAR.xlsx
+++ b/MethodDemos/output/statistics/grobid-YEAR.xlsx
@@ -482,2074 +482,2074 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
